--- a/master.xlsx
+++ b/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vkr_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFE70D-03EB-4940-9042-22BD7A0D3C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531589B-9086-43BD-ADB3-B0AF0239589B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="114">
   <si>
     <t>output_mask</t>
   </si>
@@ -144,9 +144,6 @@
     <t>near_label</t>
   </si>
   <si>
-    <t>ФИО студента</t>
-  </si>
-  <si>
     <t>date(DD.MM.YYYY)</t>
   </si>
   <si>
@@ -156,33 +153,15 @@
     <t>DN</t>
   </si>
   <si>
-    <t>Наименование базы практики</t>
-  </si>
-  <si>
     <t>МестоПрактики</t>
   </si>
   <si>
-    <t>Руководитель практики от организации (вуза)</t>
-  </si>
-  <si>
-    <t>РуководительВуза</t>
-  </si>
-  <si>
-    <t>Руководитель практики от профильной организации</t>
-  </si>
-  <si>
     <t>РуководительОрганизации</t>
   </si>
   <si>
-    <t>Тип:</t>
-  </si>
-  <si>
     <t>ТипПрактики</t>
   </si>
   <si>
-    <t>Срок прохождения практики</t>
-  </si>
-  <si>
     <t>СрокПрактики</t>
   </si>
   <si>
@@ -376,6 +355,48 @@
   </si>
   <si>
     <t>HARAKT</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>Кафедра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МестоПрактики    </t>
+  </si>
+  <si>
+    <t>Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t>ООО "Ромашка"</t>
+  </si>
+  <si>
+    <t>Производственная</t>
+  </si>
+  <si>
+    <t>09.09.25 15.10.25</t>
+  </si>
+  <si>
+    <t>(?i)(?&lt;=студента)[ \t]*[_—–-]+(?=\s*курса)</t>
+  </si>
+  <si>
+    <t>(?i)(?&lt;=кафедры)[ \t]*[_—–-]+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(?i)(?&lt;=\(тип:)[ \t]*[_—–-]+(?=\)) </t>
+  </si>
+  <si>
+    <t>(?i)(?&lt;=наименование базы практики:)\s*.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^_{5,}$ </t>
+  </si>
+  <si>
+    <t>(?i)(?&lt;=группы)[ \t]*[_—–-]+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(?i)(?&lt;=срок прохождения практики:)\s*.* </t>
   </si>
 </sst>
 </file>
@@ -424,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,6 +460,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +757,7 @@
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3">
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
@@ -779,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172FFDBA-D6B3-4A0B-8EC7-0D49B972A75E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,9 +816,13 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,8 +844,20 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -838,6 +878,18 @@
       </c>
       <c r="G2" t="s">
         <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -849,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AB18BF-484D-4C8B-AA2E-9F2841B4306E}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -887,13 +939,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -904,13 +956,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -918,13 +970,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -932,162 +984,69 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
+    <row r="11" spans="1:7">
+      <c r="C11" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1096,18 +1055,18 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1116,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1124,16 +1083,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -1141,16 +1100,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1158,50 +1117,50 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -1209,24 +1168,24 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1235,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1243,13 +1202,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1257,27 +1216,27 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -1285,13 +1244,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1302,27 +1261,27 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1330,41 +1289,41 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
@@ -1372,30 +1331,30 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1403,27 +1362,27 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>24</v>
@@ -1431,24 +1390,24 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1459,29 +1418,29 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1490,12 +1449,12 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1504,18 +1463,18 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1523,13 +1482,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1537,13 +1496,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1551,41 +1510,41 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1593,13 +1552,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>24</v>
@@ -1607,13 +1566,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1621,13 +1580,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -1635,27 +1594,27 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1663,13 +1622,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1677,41 +1636,41 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -1719,41 +1678,41 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -1761,41 +1720,41 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -1803,21 +1762,21 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1828,7 +1787,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1839,55 +1798,55 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -1895,47 +1854,48 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>